--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6239323333333333</v>
+        <v>0.9979466666666666</v>
       </c>
       <c r="N2">
-        <v>1.871797</v>
+        <v>2.99384</v>
       </c>
       <c r="O2">
-        <v>0.3831764432292831</v>
+        <v>0.4487505885107415</v>
       </c>
       <c r="P2">
-        <v>0.383176443229283</v>
+        <v>0.4487505885107414</v>
       </c>
       <c r="Q2">
-        <v>0.263461043141</v>
+        <v>0.42139196152</v>
       </c>
       <c r="R2">
-        <v>2.371149388269</v>
+        <v>3.79252765368</v>
       </c>
       <c r="S2">
-        <v>0.3831764432292831</v>
+        <v>0.4487505885107415</v>
       </c>
       <c r="T2">
-        <v>0.383176443229283</v>
+        <v>0.4487505885107414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>1.750223</v>
       </c>
       <c r="O3">
-        <v>0.358288972574529</v>
+        <v>0.2623432118199488</v>
       </c>
       <c r="P3">
-        <v>0.3582889725745289</v>
+        <v>0.2623432118199487</v>
       </c>
       <c r="Q3">
         <v>0.246349137919</v>
@@ -635,10 +635,10 @@
         <v>2.217142241271</v>
       </c>
       <c r="S3">
-        <v>0.358288972574529</v>
+        <v>0.2623432118199488</v>
       </c>
       <c r="T3">
-        <v>0.3582889725745289</v>
+        <v>0.2623432118199487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3520556666666667</v>
+        <v>0.4584083333333333</v>
       </c>
       <c r="N4">
-        <v>1.056167</v>
+        <v>1.375225</v>
       </c>
       <c r="O4">
-        <v>0.2162084427510795</v>
+        <v>0.206134271732853</v>
       </c>
       <c r="P4">
-        <v>0.2162084427510794</v>
+        <v>0.2061342717328529</v>
       </c>
       <c r="Q4">
-        <v>0.148658673751</v>
+        <v>0.193567044425</v>
       </c>
       <c r="R4">
-        <v>1.337928063759</v>
+        <v>1.742103399825</v>
       </c>
       <c r="S4">
-        <v>0.2162084427510795</v>
+        <v>0.206134271732853</v>
       </c>
       <c r="T4">
-        <v>0.2162084427510794</v>
+        <v>0.2061342717328529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06892033333333333</v>
+        <v>0.184071</v>
       </c>
       <c r="N5">
-        <v>0.206761</v>
+        <v>0.5522130000000001</v>
       </c>
       <c r="O5">
-        <v>0.04232614144510853</v>
+        <v>0.08277192793645689</v>
       </c>
       <c r="P5">
-        <v>0.04232614144510852</v>
+        <v>0.08277192793645688</v>
       </c>
       <c r="Q5">
-        <v>0.029102231033</v>
+        <v>0.077725636389</v>
       </c>
       <c r="R5">
-        <v>0.261920079297</v>
+        <v>0.6995307275010001</v>
       </c>
       <c r="S5">
-        <v>0.04232614144510853</v>
+        <v>0.08277192793645689</v>
       </c>
       <c r="T5">
-        <v>0.04232614144510852</v>
+        <v>0.08277192793645688</v>
       </c>
     </row>
   </sheetData>
